--- a/FitnessData/static6/pso/analysis.xlsx
+++ b/FitnessData/static6/pso/analysis.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>263.16</v>
+        <v>271.04</v>
       </c>
       <c r="B2" t="n">
-        <v>275.29</v>
+        <v>257.47</v>
       </c>
       <c r="C2" t="n">
-        <v>264.66</v>
+        <v>271.06</v>
       </c>
       <c r="D2" t="n">
-        <v>285.24</v>
+        <v>255.68</v>
       </c>
       <c r="E2" t="n">
-        <v>269.12</v>
+        <v>260.16</v>
       </c>
       <c r="F2" t="n">
-        <v>275.08</v>
+        <v>251.55</v>
       </c>
       <c r="G2" t="n">
-        <v>287.14</v>
+        <v>275.24</v>
       </c>
       <c r="H2" t="n">
-        <v>251.11</v>
+        <v>270.19</v>
       </c>
       <c r="I2" t="n">
-        <v>278.55</v>
+        <v>250.21</v>
       </c>
       <c r="J2" t="n">
-        <v>266.16</v>
+        <v>276.16</v>
       </c>
       <c r="K2" t="n">
-        <v>265.14</v>
+        <v>251.14</v>
       </c>
       <c r="L2" t="n">
-        <v>264.09</v>
+        <v>235.23</v>
       </c>
       <c r="M2" t="n">
-        <v>271.62</v>
+        <v>271.94</v>
       </c>
       <c r="N2" t="n">
-        <v>257.36</v>
+        <v>250.05</v>
       </c>
       <c r="O2" t="n">
-        <v>264.2</v>
+        <v>248.58</v>
       </c>
       <c r="P2" t="n">
-        <v>273.83</v>
+        <v>250.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>277.88</v>
+        <v>246.89</v>
       </c>
       <c r="R2" t="n">
-        <v>272.08</v>
+        <v>258.92</v>
       </c>
       <c r="S2" t="n">
-        <v>268.58</v>
+        <v>267.87</v>
       </c>
       <c r="T2" t="n">
-        <v>263.32</v>
+        <v>259.65</v>
       </c>
       <c r="U2" t="n">
-        <v>251.11</v>
+        <v>235.23</v>
       </c>
       <c r="V2" t="n">
-        <v>269.6805</v>
+        <v>258.9995</v>
       </c>
       <c r="W2" t="n">
-        <v>8.82833981829927</v>
+        <v>11.22641268803643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>706.17</v>
+        <v>648.29</v>
       </c>
       <c r="B3" t="n">
-        <v>624.29</v>
+        <v>632.27</v>
       </c>
       <c r="C3" t="n">
-        <v>648.76</v>
+        <v>696.9</v>
       </c>
       <c r="D3" t="n">
-        <v>679.47</v>
+        <v>645.02</v>
       </c>
       <c r="E3" t="n">
-        <v>660.88</v>
+        <v>641.51</v>
       </c>
       <c r="F3" t="n">
-        <v>639.41</v>
+        <v>610.15</v>
       </c>
       <c r="G3" t="n">
-        <v>637.75</v>
+        <v>633.48</v>
       </c>
       <c r="H3" t="n">
-        <v>676.72</v>
+        <v>621.71</v>
       </c>
       <c r="I3" t="n">
-        <v>661.72</v>
+        <v>621.34</v>
       </c>
       <c r="J3" t="n">
-        <v>657.4400000000001</v>
+        <v>608.41</v>
       </c>
       <c r="K3" t="n">
-        <v>667.14</v>
+        <v>597.05</v>
       </c>
       <c r="L3" t="n">
-        <v>650.58</v>
+        <v>599.95</v>
       </c>
       <c r="M3" t="n">
-        <v>650.54</v>
+        <v>639.84</v>
       </c>
       <c r="N3" t="n">
-        <v>663.26</v>
+        <v>619.55</v>
       </c>
       <c r="O3" t="n">
-        <v>649.4</v>
+        <v>641.72</v>
       </c>
       <c r="P3" t="n">
-        <v>650.63</v>
+        <v>633.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>624.84</v>
+        <v>630.6900000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>672.16</v>
+        <v>666.5599999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>641.88</v>
+        <v>630.62</v>
       </c>
       <c r="T3" t="n">
-        <v>631.25</v>
+        <v>617.52</v>
       </c>
       <c r="U3" t="n">
-        <v>624.29</v>
+        <v>597.05</v>
       </c>
       <c r="V3" t="n">
-        <v>654.7144999999999</v>
+        <v>631.823</v>
       </c>
       <c r="W3" t="n">
-        <v>19.92274142914653</v>
+        <v>22.8994047497907</v>
       </c>
     </row>
   </sheetData>
